--- a/documents/AlL.xlsx
+++ b/documents/AlL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="120">
   <si>
     <t>耦合设备</t>
   </si>
@@ -31,6 +31,9 @@
     <t>显示1相机</t>
   </si>
   <si>
+    <t>有黑屏的时候，需要检查</t>
+  </si>
+  <si>
     <t>激光器通道切换有失灵</t>
   </si>
   <si>
@@ -40,7 +43,10 @@
     <t>程序流程</t>
   </si>
   <si>
-    <t>1、关闭吸嘴的真空</t>
+    <t>1、关闭吸嘴的真空(2s)</t>
+  </si>
+  <si>
+    <t>主观问题</t>
   </si>
   <si>
     <t>HDML相机</t>
@@ -52,16 +58,23 @@
     <t>待调整照射角度缩小</t>
   </si>
   <si>
-    <t>2、关闭chip真空</t>
+    <t>2、关闭chip真空(2s)
+隐式操作(6s)</t>
   </si>
   <si>
     <t>相机2</t>
   </si>
   <si>
-    <t>3、六轴回到安全位置</t>
+    <t>3、六轴回到安全位置(4s)</t>
   </si>
   <si>
     <t>相机3</t>
+  </si>
+  <si>
+    <t>无辅助灯光，使用外界辅助灯</t>
+  </si>
+  <si>
+    <t>4、打开chip真空(1s)</t>
   </si>
   <si>
     <t>相机4</t>
@@ -71,6 +84,17 @@
 调整吸嘴Y轴部分的结构，加长吸嘴</t>
   </si>
   <si>
+    <t>一、同时抵住到侧面和前面，平放按压壳体，放置产品，平放不漏气，
+点击“确认”。(10s)</t>
+  </si>
+  <si>
+    <t>5、弹出提示框1，选择数字框里的箭头 ，上增、下减，点击”确认“(3s)</t>
+  </si>
+  <si>
+    <t>6、运行
+到料盘上方取料位置，左右前后对准透镜，点击“下一步”，电涡流自动下降触碰到透镜，自动上抬500um（10s）</t>
+  </si>
+  <si>
     <t>真空泵</t>
   </si>
   <si>
@@ -279,6 +303,51 @@
   </si>
   <si>
     <t>返修顺序</t>
+  </si>
+  <si>
+    <t>TOSA</t>
+  </si>
+  <si>
+    <t>TX1</t>
+  </si>
+  <si>
+    <t>TX2</t>
+  </si>
+  <si>
+    <t>TX3</t>
+  </si>
+  <si>
+    <t>TX4</t>
+  </si>
+  <si>
+    <t>UV胶</t>
+  </si>
+  <si>
+    <t>12小时</t>
+  </si>
+  <si>
+    <t>胶量控制</t>
+  </si>
+  <si>
+    <t>方法一：更改取胶工具，控制取胶量</t>
+  </si>
+  <si>
+    <t>TX数据</t>
+  </si>
+  <si>
+    <t>TOSA2</t>
+  </si>
+  <si>
+    <t>功率</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>TOSA1</t>
+  </si>
+  <si>
+    <t>最大功率</t>
   </si>
   <si>
     <t>效率</t>
@@ -316,10 +385,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -355,6 +424,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -362,31 +439,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -399,53 +470,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,10 +500,47 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -503,25 +572,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,18 +704,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -575,25 +722,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,78 +740,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -762,6 +831,97 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -772,6 +932,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,45 +979,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -846,137 +997,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -987,6 +1138,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="24" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1006,7 +1160,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="24" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1016,15 +1169,49 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="26" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="24" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="24" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="24" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="24" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="24" applyAlignment="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="24" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="24"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1344,10 +1531,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB169"/>
+  <dimension ref="A1:AB189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1355,7 +1542,7 @@
     <col min="1" max="1" width="9.875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="16.125" customWidth="1"/>
-    <col min="4" max="4" width="29.875" customWidth="1"/>
+    <col min="4" max="4" width="31.875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="11.875" customWidth="1"/>
     <col min="15" max="15" width="11.25" customWidth="1"/>
@@ -1433,380 +1620,409 @@
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="P3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="23.25" customHeight="1" spans="2:3">
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" ht="23.25" customHeight="1" spans="2:3">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" ht="23.25" customHeight="1" spans="16:19">
-      <c r="P6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="17" t="s">
+      <c r="P6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
+      <c r="Q6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="16"/>
     </row>
     <row r="7" ht="33" customHeight="1" spans="2:17">
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="15"/>
-      <c r="Q7" t="s">
         <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="17" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="2:17">
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8" s="15"/>
+        <v>15</v>
+      </c>
+      <c r="P8" s="3"/>
       <c r="Q8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" ht="12" customHeight="1" spans="2:16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="27" customHeight="1" spans="2:17">
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P9" s="15"/>
-    </row>
-    <row r="10" ht="48" customHeight="1" spans="2:16">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" ht="48" customHeight="1" spans="2:17">
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P10" s="15"/>
-    </row>
-    <row r="11" ht="48" customHeight="1" spans="2:16">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="P11" s="15"/>
-    </row>
-    <row r="12" spans="16:16">
-      <c r="P12" s="15"/>
+        <v>20</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" ht="48" customHeight="1" spans="2:17">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" ht="42.75" spans="16:17">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="4.5" hidden="1" customHeight="1" spans="2:3">
       <c r="B14" s="3"/>
-      <c r="C14" s="7"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="3"/>
-      <c r="C18" s="6" t="s">
-        <v>26</v>
+      <c r="C18" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="3"/>
-      <c r="C19" s="6" t="s">
-        <v>27</v>
+      <c r="C19" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="16"/>
+        <v>35</v>
+      </c>
+      <c r="K20" s="15"/>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
+        <v>39</v>
+      </c>
+      <c r="E24">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="3"/>
-      <c r="C31" s="7"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="3"/>
-      <c r="C32" s="6" t="s">
-        <v>39</v>
+      <c r="C32" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="3"/>
-      <c r="C33" s="7"/>
+      <c r="C33" s="8"/>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="3"/>
-      <c r="C36" s="8" t="s">
-        <v>42</v>
+      <c r="C36" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="3"/>
-      <c r="C37" s="8" t="s">
-        <v>43</v>
+      <c r="C37" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="3"/>
-      <c r="C38" s="8" t="s">
-        <v>44</v>
+      <c r="C38" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="3"/>
-      <c r="C39" s="8"/>
+      <c r="C39" s="9"/>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="3"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="8" t="s">
-        <v>48</v>
+      <c r="B42" s="10"/>
+      <c r="C42" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="8" t="s">
-        <v>49</v>
+      <c r="B43" s="10"/>
+      <c r="C43" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="8" t="s">
-        <v>50</v>
+      <c r="B44" s="8"/>
+      <c r="C44" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="3"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="8"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="9"/>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="3"/>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D48" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="3"/>
       <c r="C49" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="3"/>
       <c r="C50" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="3"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="11"/>
+      <c r="B52" s="5"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="11"/>
+      <c r="B53" s="5"/>
     </row>
     <row r="54" spans="3:15">
       <c r="C54" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D54" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E54" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F54" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L54" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M54" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="N54" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="O54" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="2:12">
       <c r="B55" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="L55" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="2:12">
       <c r="B56" s="3"/>
       <c r="C56" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K56" s="3"/>
       <c r="L56" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="2:12">
       <c r="B57" s="3"/>
       <c r="C57" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K57" s="3"/>
       <c r="L57" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="2:12">
       <c r="B58" s="3"/>
       <c r="C58" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K58" s="3"/>
       <c r="L58" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="2:11">
@@ -1816,13 +2032,13 @@
     <row r="60" ht="50" customHeight="1" spans="2:11">
       <c r="B60" s="3"/>
       <c r="D60" s="12" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K60" s="3"/>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="2:2">
@@ -1836,10 +2052,10 @@
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="2:2">
@@ -1853,28 +2069,28 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B72" s="18"/>
+        <v>69</v>
+      </c>
+      <c r="B72" s="16"/>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="3"/>
-      <c r="B73" s="18"/>
+      <c r="B73" s="16"/>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="3"/>
-      <c r="B74" s="18"/>
+      <c r="B74" s="16"/>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="3"/>
-      <c r="B75" s="18"/>
+      <c r="B75" s="16"/>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="3"/>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:1">
@@ -1891,27 +2107,27 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>65</v>
+        <v>71</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="3"/>
-      <c r="B85" s="9"/>
+      <c r="B85" s="10"/>
       <c r="C85" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="3"/>
-      <c r="B86" s="7"/>
+      <c r="B86" s="8"/>
       <c r="C86" s="3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1921,36 +2137,36 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="C89" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D89" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="3"/>
-      <c r="B90" s="8" t="s">
-        <v>73</v>
+      <c r="B90" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="C90" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D90" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="3"/>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="16"/>
+      <c r="F91" s="15"/>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="3"/>
@@ -1958,37 +2174,37 @@
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="3"/>
       <c r="B96" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="3"/>
       <c r="B97" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="3"/>
       <c r="B98" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="3"/>
       <c r="B99" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="3"/>
       <c r="B100" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101" spans="1:1">
@@ -2020,10 +2236,10 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -2033,8 +2249,8 @@
     <row r="114" spans="1:12">
       <c r="A114" s="3"/>
       <c r="J114" s="3"/>
-      <c r="L114" s="8" t="s">
-        <v>78</v>
+      <c r="L114" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -2047,7 +2263,7 @@
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="121" spans="1:1">
@@ -2061,10 +2277,10 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B126" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="127" spans="1:1">
@@ -2078,13 +2294,13 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B132" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C132" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="133" spans="1:1">
@@ -2100,100 +2316,235 @@
       <c r="A136" s="3"/>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="15" t="s">
-        <v>85</v>
+      <c r="A138" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="15"/>
+      <c r="A139" s="3"/>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="15"/>
+      <c r="A140" s="3"/>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="15"/>
+      <c r="A141" s="3"/>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="15"/>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="15" t="s">
-        <v>86</v>
+      <c r="A142" s="3"/>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="B145" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="15"/>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="15"/>
+        <v>94</v>
+      </c>
+      <c r="C145" t="s">
+        <v>95</v>
+      </c>
+      <c r="D145" t="s">
+        <v>96</v>
+      </c>
+      <c r="E145" t="s">
+        <v>97</v>
+      </c>
+      <c r="F145" t="s">
+        <v>98</v>
+      </c>
+      <c r="G145" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="3"/>
+      <c r="D146" s="20"/>
+      <c r="E146" s="20"/>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="3"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="20"/>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="15"/>
+      <c r="A148" s="3"/>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="15"/>
+      <c r="A149" s="3"/>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="15"/>
+      <c r="A150" s="3"/>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="15"/>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
+      <c r="A151" s="3"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B153">
+        <v>3408</v>
+      </c>
+      <c r="C153" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D153" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="24"/>
+      <c r="D154" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="24"/>
+      <c r="D155" s="25"/>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="24"/>
+      <c r="D156" s="25"/>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="24"/>
+      <c r="D157" s="25"/>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="26"/>
+      <c r="D158" s="25"/>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B162" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C162" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D162" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E162" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F162" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="30"/>
+      <c r="B163" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
+      <c r="C163" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E163" t="s">
+        <v>96</v>
+      </c>
+      <c r="F163" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="30"/>
+      <c r="B164" t="s">
         <v>97</v>
       </c>
+      <c r="C164" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E164" t="s">
+        <v>97</v>
+      </c>
+      <c r="F164" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="30"/>
+      <c r="B165" t="s">
+        <v>98</v>
+      </c>
+      <c r="C165" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E165" t="s">
+        <v>98</v>
+      </c>
+      <c r="F165" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="31"/>
+      <c r="B166" t="s">
+        <v>99</v>
+      </c>
+      <c r="C166" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E166" t="s">
+        <v>99</v>
+      </c>
+      <c r="F166" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="37">
     <mergeCell ref="C1:AB1"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="P2:AB2"/>
@@ -2209,6 +2560,8 @@
     <mergeCell ref="A132:A136"/>
     <mergeCell ref="A138:A142"/>
     <mergeCell ref="A145:A151"/>
+    <mergeCell ref="A153:A158"/>
+    <mergeCell ref="A162:A166"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B13:B15"/>
@@ -2225,6 +2578,7 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D154:D158"/>
     <mergeCell ref="J112:J116"/>
     <mergeCell ref="K55:K60"/>
     <mergeCell ref="P6:P12"/>
